--- a/biology/Virologie/Gp120/Gp120.xlsx
+++ b/biology/Virologie/Gp120/Gp120.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La GP120 est une glycoprotéine exprimée par le VIH (virus responsable du syndrome d'immunodéficience acquise ou SIDA)
 </t>
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La GP120 est une des protéines composant le virus communément appelé VIH ou virus de l'immunodéficience humaine (dont il existe deux types soit le 1 et le 2).
 C'est un rétrovirus d'environ 120nm de diamètre, relativement fragile, détruit par la chaleur à 60 °C et par les antiseptiques (alcool, eau de Javel...). 
@@ -547,7 +561,9 @@
           <t>Description et structure</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La structure de la protéine GP120 a été bien décrite par Kwong (1998) et ses collaborateurs. D’après eux, la GP120 a deux domaines (un interne et un externe).
 Son domaine interne est particulier : il ne contient aucune séquence homologue aux séquences connues des autres organismes. Par contre, son domaine externe contient à certains endroits des séquences répétées et similaires à d’autres ayant déjà été identifiées.
@@ -584,7 +600,9 @@
           <t>Fonction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le rôle de la GP120 est déterminant en ce qui concerne l’infection du VIH. En fait, cette protéine a trois rôles connus : 
 rechercher les récepteurs appropriés à la pénétration du virus
@@ -619,7 +637,9 @@
           <t>Interaction GP120 - CD4</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La première étape du processus d'entrée virale est la fixation de la particule  virale par la  gp120 aux récepteurs CD4 présents sur la surface cellulaire. Elle est principalement tirée par les forces électrostatiques entre la charge positive du CD4 et la charge négative de la gp120.
 Interviennent aussi des forces de Van der Waals dues à la stabilisation de la première interaction CD4 - gp120.
@@ -655,7 +675,9 @@
           <t>Compléments d'information</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs études sont en cours pour trouver des solutions pour vaincre le VIH. Des articles intéressants sont publiés sur divers banques de donnés tel que PUBMED. En voici quelques-uns que l'on peut retrouver directement via leurs numéro d'accès (PMID) :
 Asn 362 in gp120 contributes to enhanced fusogenicity by CCR5-restricted HIV-1 envelope glycoprotein variants from patients with AIDS - PMID 18076768
